--- a/DnaRepairSpreadsheetParser/test/exampleData/minAssayAnnotationSpreadsheets/Broad InstituteFaloon.xlsx
+++ b/DnaRepairSpreadsheetParser/test/exampleData/minAssayAnnotationSpreadsheets/Broad InstituteFaloon.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11095" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11095" uniqueCount="574">
   <si>
     <t>Instructions:
 Fill out from left to right.  Watch for red errors, correct them before moving on to the next column</t>
@@ -1762,6 +1762,9 @@
   </si>
   <si>
     <t>CID: 16219173</t>
+  </si>
+  <si>
+    <t>assay component role</t>
   </si>
 </sst>
 </file>
@@ -4118,7 +4121,7 @@
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1170" activePane="bottomLeft"/>
       <selection activeCell="N704" sqref="N704"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4282,7 +4285,7 @@
         <v>24</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>1</v>
+        <v>573</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>25</v>
